--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\MSCdtRPbQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A28372-CA4D-4F0B-96D9-E1953B8DA16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="2490" yWindow="1020" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MSCdtRPbQL Market Share Changes due to Rebate Program by Quality Level</t>
   </si>
@@ -23,6 +39,15 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>Datta, S. and Filippini, M.</t>
+  </si>
+  <si>
+    <t>Page 12, first paragrah</t>
+  </si>
+  <si>
+    <t>Analysis based on air conditioners, clothes washers, dishwashers, and refrigerators because data not available for other product types (p. 8)</t>
+  </si>
+  <si>
     <t>Note:</t>
   </si>
   <si>
@@ -32,20 +57,35 @@
     <t>Rebate-Qualifying</t>
   </si>
   <si>
-    <t>Change in Perc Share</t>
-  </si>
-  <si>
-    <t>none needed</t>
-  </si>
-  <si>
-    <t>Only one quality tier of components is used in the Indonesia model.</t>
+    <t>Analysing the Impact of Energy Star Rebate Policies in the U.S.</t>
+  </si>
+  <si>
+    <t>Changes across all quality levels must sum to zero.  The U.S. dataset only has two quality levels, so the</t>
+  </si>
+  <si>
+    <t>decrease in the "standard-compliant" share must equal the increase in the "rebate-qualifying" share.</t>
+  </si>
+  <si>
+    <t>Note that these figures are expressed as percentage points, not as a percentage growth (or shrinkage) relative to a BAU quantity.</t>
+  </si>
+  <si>
+    <t>That is, this is a percentage of all sales, not a percentage of the sales of a particular quality level.</t>
+  </si>
+  <si>
+    <t>Change in Perc Share (dimensionless)</t>
+  </si>
+  <si>
+    <t>This variable measures how a rebate program influences market shares of rebate-qualifying and non-qualifying components.</t>
+  </si>
+  <si>
+    <t>https://ethz.ch/content/dam/ethz/special-interest/mtec/cepe/cepe-dam/documents/research/cepe-wp/CEPE_WP86.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +97,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,14 +127,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -94,6 +152,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -142,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,9 +236,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,6 +288,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,12 +480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
@@ -405,62 +500,109 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2012</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25"/>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>-C2</f>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
   </sheetData>
